--- a/example_data/Summary/during/Averages by Sample/Avg Raw Means Differences_during_.xlsx
+++ b/example_data/Summary/during/Averages by Sample/Avg Raw Means Differences_during_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,40 +498,50 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -540,217 +550,709 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001984046628147745</v>
+        <v>-0.0009346543951156794</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.0003966382890372476</v>
+        <v>-0.0009602629909040718</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.002852942332444685</v>
+        <v>9.778644805587614e-05</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.00160506834472521</v>
+        <v>0.001806463663549577</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.01471061436253238</v>
+        <v>0.007194093354679559</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-0.001093912357851757</v>
+        <v>0.0007570645826778088</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-0.002914669420313768</v>
+        <v>-0.0001429889346181695</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-0.001093912357851757</v>
+        <v>0.0006834891441269177</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>-0.001093912357851757</v>
+        <v>0.001207081212283068</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>0.001984046628147745</v>
+        <v>0.0004898647706126297</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.0009361607831032317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0005701160367117776</v>
+        <v>1.122151575837921e-06</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.0001772985551772941</v>
+        <v>-3.406596498084415e-05</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.001427735368293548</v>
+        <v>0.005657118248150416</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.0001292782667777987</v>
+        <v>0.001478808106429536</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-0.001132333745405321</v>
+        <v>0.01972113335154474</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>-0.0002160091592328037</v>
+        <v>0.0003869927877273694</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>-0.0002160091592328037</v>
+        <v>-0.0007479064697892748</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>-0.0002160091592328037</v>
+        <v>0.001060284972133194</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-7.438684712090648e-05</v>
+        <v>0.002897136109189496</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>1.122151575837921e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005690413554983219</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>-0.008501272589856109</v>
+        <v>0.000185174759424778</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.0005308495706440079</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.007366591998463724</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.0001413393156508257</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.002401984150999514</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0006792490350520965</v>
+        <v>-0.0004441919900213948</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.000830683753778684</v>
+        <v>-0.001336755331766231</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>0.0002425890218974657</v>
+        <v>-0.003841221201172719</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>0.000185174759424778</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0001128701477986999</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0007840776586050635</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-5.100136944575996e-05</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9.706384899247386e-05</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001654588160540366</v>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0001299429858514969</v>
+        <v>-0.000164906334402494</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001427735368293548</v>
+        <v>8.283129763766842e-05</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.0001077855730109473</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>5.776910550637062e-05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.0001202308107011176</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.0014762767000151</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.0004576693034779198</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0001132687475224482</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0.002859910221765101</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.000419127150527976</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.000323928532367933</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.000540601546034218</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>-7.263130635263757e-05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.0001044204812525532</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.0003707597050485682</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.158747782347834e-05</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.000214128373906192</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0.002205441983439632</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.0003957096170174161</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>7.544117122558599e-05</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>1.158747782347834e-05</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>4.36625420570494e-05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.876221186603889e-05</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.001492586938313585</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.001035526817975588</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02908482934690699</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>0.000387278816595085</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.00157362322383869</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.001492586938313585</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.001111898077977834</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0008082133247569291</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.0001395813276790256</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0001866172447242171</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00287851970597378</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>-8.159511720401587e-05</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.0002334096287505622</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>0.0008082133247569291</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.000556199441652696</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.000786271756940027</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.001686304625335718</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0.002403264813507318</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>0.0005761517754534172</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.0005153525660732913</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>0.000556199441652696</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.0001373292708907099</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0005860477148297884</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.000942378713577209</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0.001445989226762741</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>0.0008062200404275299</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>0.0005860477148297884</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.0002185224653803999</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +1266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,40 +1337,50 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -877,217 +1389,709 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1011361921302154</v>
+        <v>-0.07854347850493448</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.01282691259760355</v>
+        <v>-0.08069549127388764</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.09226149606760392</v>
+        <v>0.008217462862302183</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.05190641433267448</v>
+        <v>0.1518057804782382</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.4757275580813495</v>
+        <v>0.6045540680262154</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-0.1873458189432208</v>
+        <v>0.06361975729974734</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-0.09425769255918109</v>
+        <v>-0.01201604397445283</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-0.1873458189432208</v>
+        <v>0.0574368613474977</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>-0.1873458189432208</v>
+        <v>0.101436806744948</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>0.1011361921302154</v>
+        <v>0.04116567929493953</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.07867006749134348</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01843702127483554</v>
+        <v>4.297603373404346e-05</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.02130855696118622</v>
+        <v>-0.006511920434342761</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.1715918124113366</v>
+        <v>0.216655672820713</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.01553725752995277</v>
+        <v>0.0566352250770023</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-0.1360890848146779</v>
+        <v>0.7552777275714322</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>-0.01101100322952098</v>
+        <v>0.07397607094829695</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>-0.01101100322952098</v>
+        <v>-0.02864323712380196</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>-0.01101100322952098</v>
+        <v>0.04060667356463932</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-0.002405601306790545</v>
+        <v>0.1109541900056361</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>4.297603373404346e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06839001098898673</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>-0.2749232323061146</v>
+        <v>0.01036409493863566</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.07263781707374237</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.4123027300450493</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.007910657427164014</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.1344372843220545</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0219662807283883</v>
+        <v>-0.02486109861767249</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.02686353839371214</v>
+        <v>-0.0748172116501678</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>0.02915546596581964</v>
+        <v>-0.2149903222929572</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>0.01036409493863566</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.02157582861048979</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2205274608114966</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.009749228006899646</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01855435658568527</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0.3162847862699062</v>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.01561714652978652</v>
+        <v>-0.03152286833359946</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1715918124113366</v>
+        <v>0.01583371614434437</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.02060388061257085</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>0.01104292271867757</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.01645156013546473</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.03566513644686931</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.06262433085509642</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.01549891912453855</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3913305143750601</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.05735048679375554</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.04432416032768499</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.07397221055105524</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.009938370183231848</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.0293690087131267</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.06418016065809828</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.003259061183004952</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.06022513977663579</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6202963638069818</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.06404942759568874</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>0.02121837007908389</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>0.003259061183004952</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>0.01228040287431056</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.0004532733235175501</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.03605917292688043</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02501712941558581</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0.7026558145778068</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>0.02733186972942223</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.038016915794712</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.03605917292688043</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.02686217066603136</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1308171411553324</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.02259258748440873</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.03020580544431051</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4659162465652595</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.01320695865546867</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.03777960523041257</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>0.1308171411553324</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.03925329770546968</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.05549045367766048</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1190095000522238</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1696083493168777</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>0.04066141652031674</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.03637056455728027</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>0.03925329770546968</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.02377231006716518</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1014474765701955</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1631299637328019</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0.2503071925557689</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>0.1395602893621872</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>0.1014474765701955</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.03782721462053318</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +2105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1172,40 +2176,50 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Animal ID_Event 8</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Event 8</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Animal ID_Event 9</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Event 9</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Group 1</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 2</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Group 2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Animal ID_Group 3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Group 3</t>
         </is>
@@ -1214,246 +2228,758 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8152718397064467</v>
+        <v>-0.5588959886414482</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.1079469239787965</v>
+        <v>-0.5742091798441722</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7764413007725925</v>
+        <v>0.05847343557953311</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.436826689146377</v>
+        <v>1.080212429814161</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>4.003560962629477</v>
+        <v>4.301857391196312</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-1.198203097972217</v>
+        <v>0.4527024754949889</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-0.793240609981519</v>
+        <v>-0.08550320032285086</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-1.198203097972217</v>
+        <v>0.4087065154015904</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>-1.198203097972217</v>
+        <v>0.7217992565326415</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>0.8152718397064467</v>
+        <v>0.2929248037594436</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.5597967645945496</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1551596862304929</v>
+        <v>0.0002830395732863478</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.150603274046093</v>
+        <v>-0.04207944140161385</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.212765782109145</v>
+        <v>1.426891312603425</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.1098132481692899</v>
+        <v>0.3729988215752285</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>210</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-0.9618418446805022</v>
+        <v>4.974248834769032</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>-0.088761111832124</v>
+        <v>0.478026685672283</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>-0.088761111832124</v>
+        <v>-0.1886439698747899</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>-0.088761111832124</v>
+        <v>0.2674349994567397</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>210</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-0.02024472057570004</v>
+        <v>0.7307427853366416</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0002830395732863478</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4833626033781077</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>-2.313660207156762</v>
-      </c>
+        <v>0.0569829326078532</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.4790703380964985</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-2.266885706788385</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.04349366362667138</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>-0.7391509589466302</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.1848607307363455</v>
+        <v>-0.1366890515260489</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.2260743818687354</v>
+        <v>-0.411353249329675</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>211</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>0.2060631622680954</v>
+        <v>-1.182040411545378</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0569829326078532</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1394210547964104</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1.815139773975889</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.0629986303984551</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1198965756053177</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>2.043803708023918</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.1103778826002911</v>
+        <v>-0.2036979266298979</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.212765782109145</v>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+        <v>0.1023160429221321</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.1331404146632553</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="V5" t="n">
+        <v>0.07135836872215132</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.1085034599582015</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.2636909688002312</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.4130280969947149</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1022204785915439</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>2.580953687509788</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.3782453576542719</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.2923324423759894</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.4878711027681717</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.06554682609714813</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.2417334133412447</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4637490375365143</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02682501107719121</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4957071840375992</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>5.105598175644408</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.4037882291682534</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1746463108392949</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>0.02682501107719121</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1010787845449442</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.003351286262081199</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.2666042861602125</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1849646952009812</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>5.195101181097593</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>0.205188670650074</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.2810789010057014</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.2666042861602125</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1986060481656937</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8247134089223405</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.1424309511436183</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1904271302462024</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>2.937286142959519</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.08326092282749745</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.2381748044800764</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>0.8247134089223405</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.2946864614295521</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.4165837367368925</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8934405641542598</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>1.27330153670461</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>0.3052576382497316</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.2730449056790085</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>0.2946864614295521</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.171772488579403</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7330329051458976</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1.178734407934326</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1.808654239034813</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>1.008426111844973</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>0.7330329051458976</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.2733295490862243</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
